--- a/Final codes.xlsx
+++ b/Final codes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arty/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arty/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="460" windowWidth="26680" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="2120" yWindow="460" windowWidth="26680" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="NEW_Nodes compared by number of coding references" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Arty/Desktop/NEW_Nodes compared by number of coding references.csv" decimal="," thousands=" " comma="1">
+    <textPr fileType="mac" sourceFile="/Users/Arty/Desktop/NEW_Nodes compared by number of coding references.csv" decimal="," thousands=" " comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -583,12 +583,6 @@
     <t>Nodes\\GUI pros\\GUI+ Good for complex tasks</t>
   </si>
   <si>
-    <t>Nodes\\GUI pros\\GUI+ Good for now and then use</t>
-  </si>
-  <si>
-    <t>Nodes\\GUI pros\\GUI+ Good for now and then use\GUI+ No need to learn, remember CLI</t>
-  </si>
-  <si>
     <t>Nodes\\GUI pros\\GUI+ Good for people that struggle to work with text</t>
   </si>
   <si>
@@ -749,6 +743,12 @@
   </si>
   <si>
     <t>Nodes\\Use cases\\U Upgrading (updating) firewall</t>
+  </si>
+  <si>
+    <t>Nodes\\GUI pros\\GUI+ Good for occasional use</t>
+  </si>
+  <si>
+    <t>Nodes\\GUI pros\\GUI+ Good for occasional use\GUI+ No need to learn, remember CLI</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="B176">
         <v>10</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="B177">
         <v>34</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B178">
         <v>6</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B180">
         <v>26</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B181">
         <v>6</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B183">
         <v>6</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B184">
         <v>6</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B185">
         <v>9</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B187">
         <v>5</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B189">
         <v>17</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B192">
         <v>9</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B193">
         <v>7</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B194">
         <v>29</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B195">
         <v>14</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B196">
         <v>19</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B197">
         <v>20</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B198">
         <v>11</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B199">
         <v>6</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B200">
         <v>2</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B202">
         <v>4</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B207">
         <v>17</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B209">
         <v>5</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B212">
         <v>4</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B219">
         <v>15</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B221">
         <v>4</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B222">
         <v>4</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B225">
         <v>6</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B228">
         <v>6</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B229">
         <v>13</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B230">
         <v>8</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B231">
         <v>5</v>
